--- a/spliced/walkingToRunning/2023-03-27_19-47-09/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-47-09/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5.376924514770508</v>
+        <v>-9.514568328857422</v>
       </c>
       <c r="D2" t="n">
-        <v>-16.26252555847168</v>
+        <v>-7.287443161010742</v>
       </c>
       <c r="E2" t="n">
-        <v>1.286692142486572</v>
+        <v>-4.99766206741333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03603153119142521</v>
+        <v>1.033005767512607</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04222946605462907</v>
+        <v>-2.26011000282463</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.1640078815920647</v>
+        <v>-0.9051166365201431</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-9.587001800537109</v>
+        <v>-7.823380947113037</v>
       </c>
       <c r="D3" t="n">
-        <v>-14.14869499206543</v>
+        <v>-6.074180126190186</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.664586067199707</v>
+        <v>-4.752357959747314</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9966398652257602</v>
+        <v>0.9114278760449622</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3199145141346715</v>
+        <v>-1.322062040197435</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.120942865980084</v>
+        <v>-0.8478403153090641</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.424562931060791</v>
+        <v>-3.637385606765747</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.958045482635498</v>
+        <v>-2.725360631942749</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.69240665435791</v>
+        <v>-3.621543645858765</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5151678604641169</v>
+        <v>0.6373885839149871</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.390967567761743</v>
+        <v>-0.4370783201750674</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.090604268271347</v>
+        <v>-0.9901816481831425</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-9.514568328857422</v>
+        <v>-10.94634628295898</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.287443161010742</v>
+        <v>-2.156153917312622</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.99766206741333</v>
+        <v>-9.503169059753418</v>
       </c>
       <c r="F5" t="n">
-        <v>1.033005767512607</v>
+        <v>-0.08095168998871549</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.26011000282463</v>
+        <v>-0.8572516530409613</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.9051166365201431</v>
+        <v>-0.2425374309907035</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-7.823380947113037</v>
+        <v>66.69537353515625</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.074180126190186</v>
+        <v>-35.59264755249023</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.752357959747314</v>
+        <v>-8.555927276611328</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9114278760449622</v>
+        <v>-0.5983732620189923</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.322062040197435</v>
+        <v>-0.3525244653353435</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.8478403153090641</v>
+        <v>-0.1835469028045379</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-3.637385606765747</v>
+        <v>-6.669784069061279</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.725360631942749</v>
+        <v>-7.415677547454834</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.621543645858765</v>
+        <v>10.31031608581543</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6373885839149871</v>
+        <v>0.904387354850761</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.4370783201750674</v>
+        <v>0.4711575967570125</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.9901816481831425</v>
+        <v>-3.501346578200644</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-10.94634628295898</v>
+        <v>-6.682662963867188</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.156153917312622</v>
+        <v>0.0761735439300537</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.503169059753418</v>
+        <v>-2.404594898223877</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.08095168998871549</v>
+        <v>-0.0358646748394702</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.8572516530409613</v>
+        <v>-1.06903420953914</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.2425374309907035</v>
+        <v>-1.137895204212497</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>66.69537353515625</v>
+        <v>-4.13407564163208</v>
       </c>
       <c r="D9" t="n">
-        <v>-35.59264755249023</v>
+        <v>-28.60597419738769</v>
       </c>
       <c r="E9" t="n">
-        <v>-8.555927276611328</v>
+        <v>8.249073028564453</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5983732620189923</v>
+        <v>-2.645820761549075</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3525244653353435</v>
+        <v>-2.995684344193039</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1835469028045379</v>
+        <v>2.325931413420326</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-6.669784069061279</v>
+        <v>-12.32790374755859</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.415677547454834</v>
+        <v>6.361005783081055</v>
       </c>
       <c r="E10" t="n">
-        <v>10.31031608581543</v>
+        <v>-18.50937080383301</v>
       </c>
       <c r="F10" t="n">
-        <v>0.904387354850761</v>
+        <v>-5.634616028303401</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4711575967570125</v>
+        <v>1.589792383128232</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.501346578200644</v>
+        <v>0.8637641414828536</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-6.682662963867188</v>
+        <v>-0.0332281589508056</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0761735439300537</v>
+        <v>-8.605781555175781</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.404594898223877</v>
+        <v>-5.739476203918457</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0358646748394702</v>
+        <v>0.2434335577077258</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.06903420953914</v>
+        <v>-0.9524030027718666</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.137895204212497</v>
+        <v>-0.7793511700356166</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-4.13407564163208</v>
+        <v>-14.07493591308594</v>
       </c>
       <c r="D12" t="n">
-        <v>-28.60597419738769</v>
+        <v>-31.83533477783203</v>
       </c>
       <c r="E12" t="n">
-        <v>8.249073028564453</v>
+        <v>-4.278344631195068</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.645820761549075</v>
+        <v>3.219139538962262</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.995684344193039</v>
+        <v>-4.921159070113614</v>
       </c>
       <c r="H12" t="n">
-        <v>2.325931413420326</v>
+        <v>-0.2975026624726805</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-12.32790374755859</v>
+        <v>2.169375419616699</v>
       </c>
       <c r="D13" t="n">
-        <v>6.361005783081055</v>
+        <v>6.375825881958008</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.50937080383301</v>
+        <v>16.93547058105469</v>
       </c>
       <c r="F13" t="n">
-        <v>-5.634616028303401</v>
+        <v>6.111283532504389</v>
       </c>
       <c r="G13" t="n">
-        <v>1.589792383128232</v>
+        <v>1.10011664204216</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8637641414828536</v>
+        <v>1.229119239182312</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.0332281589508056</v>
+        <v>-3.887731313705444</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.605781555175781</v>
+        <v>1.673339605331421</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.739476203918457</v>
+        <v>2.357208251953125</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2434335577077258</v>
+        <v>2.061637947614152</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.9524030027718666</v>
+        <v>3.835073033968605</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.7793511700356166</v>
+        <v>-0.2914631209154284</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-14.07493591308594</v>
+        <v>3.855255126953125</v>
       </c>
       <c r="D15" t="n">
-        <v>-31.83533477783203</v>
+        <v>-33.85980224609375</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.278344631195068</v>
+        <v>3.360419273376465</v>
       </c>
       <c r="F15" t="n">
-        <v>3.219139538962262</v>
+        <v>-3.819613575935366</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.921159070113614</v>
+        <v>2.543305224385755</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.2975026624726805</v>
+        <v>1.029467895113191</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.169375419616699</v>
+        <v>30.62849044799805</v>
       </c>
       <c r="D16" t="n">
-        <v>6.375825881958008</v>
+        <v>7.678761005401611</v>
       </c>
       <c r="E16" t="n">
-        <v>16.93547058105469</v>
+        <v>-9.237998962402344</v>
       </c>
       <c r="F16" t="n">
-        <v>6.111283532504389</v>
+        <v>-4.798000733057658</v>
       </c>
       <c r="G16" t="n">
-        <v>1.10011664204216</v>
+        <v>7.385336404559252</v>
       </c>
       <c r="H16" t="n">
-        <v>1.229119239182312</v>
+        <v>1.159243436466003</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-3.887731313705444</v>
+        <v>-11.34725379943848</v>
       </c>
       <c r="D17" t="n">
-        <v>1.673339605331421</v>
+        <v>-16.60527801513672</v>
       </c>
       <c r="E17" t="n">
-        <v>2.357208251953125</v>
+        <v>-12.14533615112305</v>
       </c>
       <c r="F17" t="n">
-        <v>2.061637947614152</v>
+        <v>-0.8656106913226824</v>
       </c>
       <c r="G17" t="n">
-        <v>3.835073033968605</v>
+        <v>6.255807002385461</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.2914631209154284</v>
+        <v>-3.608730400088184</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.855255126953125</v>
+        <v>6.219323635101318</v>
       </c>
       <c r="D18" t="n">
-        <v>-33.85980224609375</v>
+        <v>-10.72451782226562</v>
       </c>
       <c r="E18" t="n">
-        <v>3.360419273376465</v>
+        <v>26.53547286987305</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.819613575935366</v>
+        <v>4.937833545536877</v>
       </c>
       <c r="G18" t="n">
-        <v>2.543305224385755</v>
+        <v>-2.039471638613807</v>
       </c>
       <c r="H18" t="n">
-        <v>1.029467895113191</v>
+        <v>-6.196790481435843</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30.62849044799805</v>
+        <v>-4.500537395477295</v>
       </c>
       <c r="D19" t="n">
-        <v>7.678761005401611</v>
+        <v>9.60122776031494</v>
       </c>
       <c r="E19" t="n">
-        <v>-9.237998962402344</v>
+        <v>-3.719542026519776</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.798000733057658</v>
+        <v>5.261263814465728</v>
       </c>
       <c r="G19" t="n">
-        <v>7.385336404559252</v>
+        <v>-3.646456844505198</v>
       </c>
       <c r="H19" t="n">
-        <v>1.159243436466003</v>
+        <v>-4.444081427037008</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-11.34725379943848</v>
+        <v>-59.25642776489258</v>
       </c>
       <c r="D20" t="n">
-        <v>-16.60527801513672</v>
+        <v>-72.75296783447266</v>
       </c>
       <c r="E20" t="n">
-        <v>-12.14533615112305</v>
+        <v>58.0263671875</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.8656106913226824</v>
+        <v>-0.0522782514835689</v>
       </c>
       <c r="G20" t="n">
-        <v>6.255807002385461</v>
+        <v>0.8027088176245329</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.608730400088184</v>
+        <v>-0.5144340389076021</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6.219323635101318</v>
+        <v>43.50658416748047</v>
       </c>
       <c r="D21" t="n">
-        <v>-10.72451782226562</v>
+        <v>8.478635787963867</v>
       </c>
       <c r="E21" t="n">
-        <v>26.53547286987305</v>
+        <v>-37.43244552612305</v>
       </c>
       <c r="F21" t="n">
-        <v>4.937833545536877</v>
+        <v>-7.4421002289345</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.039471638613807</v>
+        <v>-0.8067863480798509</v>
       </c>
       <c r="H21" t="n">
-        <v>-6.196790481435843</v>
+        <v>5.891316611191369</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-19.30278778076172</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-6.771676063537598</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-17.75639343261719</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.6881247882184418</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-10.85945387133243</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.675690663957009</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-18.29881477355957</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-37.5744743347168</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.842066764831543</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.403560649389491</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-11.45763061786516</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.461910155997879</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.273155212402344</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8.59691047668457</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-6.313179969787598</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.784720346845424</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.472261708358207</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-1.690446103441295</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.403256893157959</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.687671661376953</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1.856612205505371</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8494467159797106</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.416543818924583</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3924825684777868</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>4.316394805908203</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-26.35572052001953</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-17.98580360412598</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-4.816584700825577</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.840564275695681</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.20516648785821</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>31.11298370361328</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.278896331787109</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-11.80455207824707</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-4.067581341184413</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7.491072893142713</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.0797111165934683</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-10.42159271240234</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-19.3218994140625</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-14.07432746887207</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.603338341945886</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10.07777972605036</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-4.32223105156559</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>6.261336803436279</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-9.548392295837402</v>
+      </c>
+      <c r="E29" t="n">
+        <v>26.6091365814209</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.495839129919295</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1920398131184147</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-4.956773451004905</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-5.242365837097168</v>
+      </c>
+      <c r="D30" t="n">
+        <v>18.12157821655273</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.32082748413086</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.441888874974746</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-4.70699503503997</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-3.40560439948378</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-17.76671600341797</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-38.77998352050781</v>
+      </c>
+      <c r="E31" t="n">
+        <v>33.62932968139648</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.070874737597066</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.5835215826144202</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-1.073033490400209</v>
       </c>
     </row>
   </sheetData>
